--- a/shells/Freebayes/analysis_log.xlsx
+++ b/shells/Freebayes/analysis_log.xlsx
@@ -341,13 +341,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -631,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -710,16 +712,16 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="6">
         <v>168460001</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="7">
         <v>134208390</v>
       </c>
       <c r="E4">

--- a/shells/Freebayes/analysis_log.xlsx
+++ b/shells/Freebayes/analysis_log.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="109">
   <si>
     <t>chr</t>
   </si>
@@ -264,13 +264,103 @@
   </si>
   <si>
     <t>extension requested</t>
+  </si>
+  <si>
+    <t>completed as of 4/29/18</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>17-16:08:44</t>
+  </si>
+  <si>
+    <t>6-09:08:13</t>
+  </si>
+  <si>
+    <t>n0008.savio2</t>
+  </si>
+  <si>
+    <t>8-06:01:30</t>
+  </si>
+  <si>
+    <t>16-08:33:48</t>
+  </si>
+  <si>
+    <t>16-17:57:34</t>
+  </si>
+  <si>
+    <t>18-11:15:43</t>
+  </si>
+  <si>
+    <t>13-10:37:24</t>
+  </si>
+  <si>
+    <t>15-00:26:10</t>
+  </si>
+  <si>
+    <t>15-11:28:25</t>
+  </si>
+  <si>
+    <t>0-15hapl</t>
+  </si>
+  <si>
+    <t>n0117.savio1</t>
+  </si>
+  <si>
+    <t>8-05:59:10</t>
+  </si>
+  <si>
+    <t>8-22:39:19</t>
+  </si>
+  <si>
+    <t>8-22:42:33</t>
+  </si>
+  <si>
+    <t>9-07:12:20</t>
+  </si>
+  <si>
+    <t>18-22:56:04</t>
+  </si>
+  <si>
+    <t>18-22:57:38</t>
+  </si>
+  <si>
+    <t>21-00:25:35</t>
+  </si>
+  <si>
+    <t>21-01:59:39</t>
+  </si>
+  <si>
+    <t>14-19:33:45</t>
+  </si>
+  <si>
+    <t>9-07:23:58</t>
+  </si>
+  <si>
+    <t>15-20:24:45</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v2_time</t>
+  </si>
+  <si>
+    <t>failed</t>
+  </si>
+  <si>
+    <t>17-09:41:56</t>
+  </si>
+  <si>
+    <t>estimated time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,6 +393,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -348,8 +443,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -631,19 +726,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -656,35 +752,59 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>153860001</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>131184779</v>
       </c>
-      <c r="E2">
-        <f>D2/B2</f>
-        <v>0.85262432176898273</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="6">
+        <v>153904991</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="6">
+        <f>E2/B2</f>
+        <v>1.0002924086813181</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="L2">
         <v>5</v>
       </c>
-      <c r="G2">
+      <c r="M2">
         <v>2885520</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -697,39 +817,57 @@
       <c r="D3" s="1">
         <v>94977839</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E18" si="0">D3/B3</f>
-        <v>0.52566879828609259</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="6">
+        <v>156268326</v>
+      </c>
+      <c r="F3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G18" si="0">E3/B3</f>
+        <v>0.86488999964085678</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="M3">
         <v>2918813</v>
       </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="2">
         <v>168460001</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="2">
         <v>134208390</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
+        <v>168485013</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" s="6">
         <f t="shared" si="0"/>
-        <v>0.79667807908893462</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+        <v>1.00014847441441</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -742,21 +880,30 @@
       <c r="D5" s="1">
         <v>67042536</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
+        <v>129954120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>0.37476961051612939</v>
-      </c>
-      <c r="F5">
+        <v>0.72644708632988375</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="L5">
         <v>5</v>
       </c>
-      <c r="G5">
+      <c r="M5">
         <v>2921644</v>
       </c>
-      <c r="H5" t="s">
+      <c r="N5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -769,21 +916,30 @@
       <c r="D6" s="1">
         <v>94705405</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
+        <v>158836101</v>
+      </c>
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="6">
         <f t="shared" si="0"/>
-        <v>0.43236579879307069</v>
-      </c>
-      <c r="F6">
+        <v>0.72514654983041205</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="L6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="M6">
         <v>2918142</v>
       </c>
-      <c r="H6" t="s">
+      <c r="N6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -794,12 +950,21 @@
         <v>9</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7">
+      <c r="E7" s="6">
+        <v>103887768</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+        <v>1.0007491282077918</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -812,12 +977,21 @@
       <c r="D8" s="3">
         <v>96156665</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
+        <v>103871891</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>0.92698991683225762</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+        <v>1.0013678781319977</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -830,21 +1004,30 @@
       <c r="D9" s="1">
         <v>84847142</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
+        <v>126391582</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>0.55401332971587769</v>
-      </c>
-      <c r="F9">
+        <v>0.82527966813398845</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="L9">
         <v>14</v>
       </c>
-      <c r="G9">
+      <c r="M9">
         <v>2880221</v>
       </c>
-      <c r="H9" t="s">
+      <c r="N9" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -857,21 +1040,36 @@
       <c r="D10" s="1">
         <v>115554072</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
+        <v>139971910</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>0.5511498208950214</v>
-      </c>
-      <c r="F10">
+        <v>0.66761380011631311</v>
+      </c>
+      <c r="H10" s="1">
+        <v>98139173</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="1">
+        <v>10</v>
+      </c>
+      <c r="L10">
         <v>14</v>
       </c>
-      <c r="G10">
+      <c r="M10">
         <v>2880242</v>
       </c>
-      <c r="H10" t="s">
+      <c r="N10" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -884,96 +1082,138 @@
       <c r="D11" s="1">
         <v>58543261</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
+        <v>95260248</v>
+      </c>
+      <c r="F11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>0.23771017038448039</v>
-      </c>
-      <c r="G11">
+        <v>0.38679652271074988</v>
+      </c>
+      <c r="H11" s="1">
+        <v>69082868</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11">
+        <v>18</v>
+      </c>
+      <c r="M11">
         <v>2909461</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>168410001</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>113987700</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
+        <v>167532758</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="0"/>
-        <v>0.67684638277509424</v>
-      </c>
-      <c r="F12">
+        <v>0.99479102787963292</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="L12">
         <v>5</v>
       </c>
-      <c r="G12">
+      <c r="M12">
         <v>2909463</v>
       </c>
-      <c r="H12" t="s">
+      <c r="N12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>166370001</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>107295650</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
+        <v>166487793</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="6">
         <f t="shared" si="0"/>
-        <v>0.64492185703599292</v>
-      </c>
-      <c r="F13">
+        <v>1.0007080122575704</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13">
         <v>5</v>
       </c>
-      <c r="G13">
+      <c r="M13">
         <v>2909464</v>
       </c>
-      <c r="H13" t="s">
+      <c r="N13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>197220001</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="3">
         <v>127114840</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
+        <v>193204307</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>0.64453320837372874</v>
-      </c>
-      <c r="F14">
+        <v>0.97963850532583663</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14">
         <v>5</v>
       </c>
-      <c r="G14">
+      <c r="M14">
         <v>2914514</v>
       </c>
-      <c r="H14" t="s">
+      <c r="N14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -986,21 +1226,32 @@
       <c r="D15" s="1">
         <v>16633329</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
+        <v>111461309</v>
+      </c>
+      <c r="F15" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>9.5429310984341306E-2</v>
-      </c>
-      <c r="F15">
+        <v>0.63947968078324913</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
+        <v>6</v>
+      </c>
+      <c r="L15">
         <v>5</v>
       </c>
-      <c r="G15">
+      <c r="M15">
         <v>2930275</v>
       </c>
-      <c r="H15" t="s">
+      <c r="N15" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1013,21 +1264,32 @@
       <c r="D16" s="1">
         <v>18471940</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
+        <v>107409198</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>0.10787794131940699</v>
-      </c>
-      <c r="F16">
+        <v>0.62728025096489959</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
+        <v>6</v>
+      </c>
+      <c r="L16">
         <v>5</v>
       </c>
-      <c r="G16">
+      <c r="M16">
         <v>2931590</v>
       </c>
-      <c r="H16" t="s">
+      <c r="N16" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1040,21 +1302,32 @@
       <c r="D17" s="1">
         <v>15616352</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
+        <v>109697874</v>
+      </c>
+      <c r="F17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>8.2819006773340018E-2</v>
-      </c>
-      <c r="F17">
+        <v>0.58176640548490455</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
+        <v>6</v>
+      </c>
+      <c r="L17">
         <v>5</v>
       </c>
-      <c r="G17">
+      <c r="M17">
         <v>2931586</v>
       </c>
-      <c r="H17" t="s">
+      <c r="N17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="18" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1067,21 +1340,32 @@
       <c r="D18" s="1">
         <v>11707219</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
+        <v>75606347</v>
+      </c>
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>5.4530806956398496E-2</v>
-      </c>
-      <c r="F18">
+        <v>0.35216519934712748</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
+        <v>15</v>
+      </c>
+      <c r="L18">
         <v>5</v>
       </c>
-      <c r="G18">
+      <c r="M18">
         <v>2930276</v>
       </c>
-      <c r="H18" t="s">
+      <c r="N18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2885520</v>
       </c>
@@ -1106,8 +1390,32 @@
       <c r="H22" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>2961461</v>
+      </c>
+      <c r="L22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" t="s">
+        <v>18</v>
+      </c>
+      <c r="O22" t="s">
+        <v>19</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0.24225694444444446</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2931848</v>
       </c>
@@ -1132,8 +1440,32 @@
       <c r="H23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>2931848</v>
+      </c>
+      <c r="L23" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+      <c r="N23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" t="s">
+        <v>19</v>
+      </c>
+      <c r="P23" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2909461</v>
       </c>
@@ -1158,8 +1490,32 @@
       <c r="H24" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>2933828</v>
+      </c>
+      <c r="L24" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" t="s">
+        <v>18</v>
+      </c>
+      <c r="O24" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2909463</v>
       </c>
@@ -1184,8 +1540,32 @@
       <c r="H25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>2909461</v>
+      </c>
+      <c r="L25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" t="s">
+        <v>69</v>
+      </c>
+      <c r="N25" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" t="s">
+        <v>19</v>
+      </c>
+      <c r="P25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+      <c r="R25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2909464</v>
       </c>
@@ -1210,8 +1590,32 @@
       <c r="H26" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>2909463</v>
+      </c>
+      <c r="L26" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" t="s">
+        <v>19</v>
+      </c>
+      <c r="P26" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2914514</v>
       </c>
@@ -1236,8 +1640,32 @@
       <c r="H27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>2914514</v>
+      </c>
+      <c r="L27" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" t="s">
+        <v>18</v>
+      </c>
+      <c r="O27" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2930275</v>
       </c>
@@ -1262,8 +1690,32 @@
       <c r="H28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>2930275</v>
+      </c>
+      <c r="L28" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O28" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+      <c r="R28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2931590</v>
       </c>
@@ -1288,8 +1740,32 @@
       <c r="H29" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>2931590</v>
+      </c>
+      <c r="L29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" t="s">
+        <v>57</v>
+      </c>
+      <c r="N29" t="s">
+        <v>18</v>
+      </c>
+      <c r="O29" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q29">
+        <v>1</v>
+      </c>
+      <c r="R29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2931586</v>
       </c>
@@ -1314,8 +1790,32 @@
       <c r="H30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>2931586</v>
+      </c>
+      <c r="L30" t="s">
+        <v>47</v>
+      </c>
+      <c r="M30" t="s">
+        <v>58</v>
+      </c>
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" t="s">
+        <v>19</v>
+      </c>
+      <c r="P30" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2930276</v>
       </c>
@@ -1340,8 +1840,32 @@
       <c r="H31" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>2930276</v>
+      </c>
+      <c r="L31" t="s">
+        <v>47</v>
+      </c>
+      <c r="M31" t="s">
+        <v>63</v>
+      </c>
+      <c r="N31" t="s">
+        <v>18</v>
+      </c>
+      <c r="O31" t="s">
+        <v>19</v>
+      </c>
+      <c r="P31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q31">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2909989</v>
       </c>
@@ -1366,8 +1890,32 @@
       <c r="H32" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>2909989</v>
+      </c>
+      <c r="L32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" t="s">
+        <v>17</v>
+      </c>
+      <c r="N32" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q32">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2931847</v>
       </c>
@@ -1392,8 +1940,32 @@
       <c r="H33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>2931847</v>
+      </c>
+      <c r="L33" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" t="s">
+        <v>18</v>
+      </c>
+      <c r="O33" t="s">
+        <v>19</v>
+      </c>
+      <c r="P33" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2918813</v>
       </c>
@@ -1418,8 +1990,32 @@
       <c r="H34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>2918813</v>
+      </c>
+      <c r="L34" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>32</v>
+      </c>
+      <c r="N34" t="s">
+        <v>18</v>
+      </c>
+      <c r="O34" t="s">
+        <v>19</v>
+      </c>
+      <c r="P34" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2916017</v>
       </c>
@@ -1444,8 +2040,32 @@
       <c r="H35" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>2916017</v>
+      </c>
+      <c r="L35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" t="s">
+        <v>29</v>
+      </c>
+      <c r="N35" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" t="s">
+        <v>19</v>
+      </c>
+      <c r="P35" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>2913054</v>
       </c>
@@ -1470,8 +2090,32 @@
       <c r="H36" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>2921644</v>
+      </c>
+      <c r="L36" t="s">
+        <v>22</v>
+      </c>
+      <c r="M36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N36" t="s">
+        <v>18</v>
+      </c>
+      <c r="O36" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2921644</v>
       </c>
@@ -1496,8 +2140,32 @@
       <c r="H37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>2918142</v>
+      </c>
+      <c r="L37" t="s">
+        <v>22</v>
+      </c>
+      <c r="M37" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" t="s">
+        <v>18</v>
+      </c>
+      <c r="O37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+      <c r="R37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2918142</v>
       </c>
@@ -1522,8 +2190,32 @@
       <c r="H38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>2931587</v>
+      </c>
+      <c r="L38" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" t="s">
+        <v>50</v>
+      </c>
+      <c r="N38" t="s">
+        <v>18</v>
+      </c>
+      <c r="O38" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2931587</v>
       </c>
@@ -1548,8 +2240,32 @@
       <c r="H39" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>2931588</v>
+      </c>
+      <c r="L39" t="s">
+        <v>47</v>
+      </c>
+      <c r="M39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O39" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="R39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2880220</v>
       </c>
@@ -1574,8 +2290,32 @@
       <c r="H40" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>2880221</v>
+      </c>
+      <c r="L40" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" t="s">
+        <v>53</v>
+      </c>
+      <c r="N40" t="s">
+        <v>18</v>
+      </c>
+      <c r="O40" t="s">
+        <v>19</v>
+      </c>
+      <c r="P40" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+      <c r="R40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>2931588</v>
       </c>
@@ -1600,8 +2340,32 @@
       <c r="H41" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>2931589</v>
+      </c>
+      <c r="L41" t="s">
+        <v>47</v>
+      </c>
+      <c r="M41" t="s">
+        <v>55</v>
+      </c>
+      <c r="N41" t="s">
+        <v>18</v>
+      </c>
+      <c r="O41" t="s">
+        <v>19</v>
+      </c>
+      <c r="P41" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+      <c r="R41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>2880221</v>
       </c>
@@ -1626,8 +2390,32 @@
       <c r="H42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>2885521</v>
+      </c>
+      <c r="L42" t="s">
+        <v>47</v>
+      </c>
+      <c r="M42" t="s">
+        <v>71</v>
+      </c>
+      <c r="N42" t="s">
+        <v>18</v>
+      </c>
+      <c r="O42" t="s">
+        <v>19</v>
+      </c>
+      <c r="P42" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+      <c r="R42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2931589</v>
       </c>
@@ -1653,7 +2441,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2880242</v>
       </c>
@@ -1679,7 +2467,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2885521</v>
       </c>
@@ -1706,8 +2494,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A22:H46">
-    <sortCondition ref="C22:C46"/>
+  <sortState ref="K22:R42">
+    <sortCondition ref="M22:M42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/shells/Freebayes/analysis_log.xlsx
+++ b/shells/Freebayes/analysis_log.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="460" windowWidth="16160" windowHeight="17140" tabRatio="500"/>
+    <workbookView xWindow="1900" yWindow="460" windowWidth="25000" windowHeight="17140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="110">
   <si>
     <t>chr</t>
   </si>
@@ -354,13 +354,16 @@
   </si>
   <si>
     <t>estimated time</t>
+  </si>
+  <si>
+    <t>9-16:35:19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -399,6 +402,11 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFCBBAF4"/>
+      <name val="Courier New"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -436,7 +444,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -445,6 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -729,7 +738,7 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,18 +1013,24 @@
       <c r="D9" s="1">
         <v>84847142</v>
       </c>
-      <c r="E9" s="6">
-        <v>126391582</v>
+      <c r="E9" s="8">
+        <v>130888853</v>
       </c>
       <c r="F9" t="s">
         <v>100</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
-        <v>0.82527966813398845</v>
+        <v>0.85464480669510412</v>
+      </c>
+      <c r="H9" s="8">
+        <v>76806430</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="J9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L9">
         <v>14</v>
@@ -1040,15 +1055,15 @@
       <c r="D10" s="1">
         <v>115554072</v>
       </c>
-      <c r="E10" s="6">
-        <v>139971910</v>
+      <c r="E10" s="8">
+        <v>139971907</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
-        <v>0.66761380011631311</v>
+        <v>0.66761378580743214</v>
       </c>
       <c r="H10" s="1">
         <v>98139173</v>
@@ -1082,15 +1097,15 @@
       <c r="D11" s="1">
         <v>58543261</v>
       </c>
-      <c r="E11" s="6">
-        <v>95260248</v>
+      <c r="E11" s="8">
+        <v>99465493</v>
       </c>
       <c r="F11" t="s">
         <v>98</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
-        <v>0.38679652271074988</v>
+        <v>0.40387157948728447</v>
       </c>
       <c r="H11" s="1">
         <v>69082868</v>
@@ -1340,15 +1355,15 @@
       <c r="D18" s="1">
         <v>11707219</v>
       </c>
-      <c r="E18" s="6">
-        <v>75606347</v>
+      <c r="E18" s="8">
+        <v>75606339</v>
       </c>
       <c r="F18" t="s">
         <v>96</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>0.35216519934712748</v>
+        <v>0.35216516208409726</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -2291,13 +2306,13 @@
         <v>76</v>
       </c>
       <c r="K40">
-        <v>2880221</v>
+        <v>2931589</v>
       </c>
       <c r="L40" t="s">
         <v>47</v>
       </c>
       <c r="M40" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="N40" t="s">
         <v>18</v>
@@ -2306,13 +2321,13 @@
         <v>19</v>
       </c>
       <c r="P40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="Q40">
         <v>1</v>
       </c>
       <c r="R40" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
@@ -2341,13 +2356,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>2931589</v>
+        <v>2885521</v>
       </c>
       <c r="L41" t="s">
         <v>47</v>
       </c>
       <c r="M41" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="N41" t="s">
         <v>18</v>
@@ -2356,13 +2371,13 @@
         <v>19</v>
       </c>
       <c r="P41" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="Q41">
         <v>1</v>
       </c>
       <c r="R41" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
@@ -2389,30 +2404,6 @@
       </c>
       <c r="H42" t="s">
         <v>77</v>
-      </c>
-      <c r="K42">
-        <v>2885521</v>
-      </c>
-      <c r="L42" t="s">
-        <v>47</v>
-      </c>
-      <c r="M42" t="s">
-        <v>71</v>
-      </c>
-      <c r="N42" t="s">
-        <v>18</v>
-      </c>
-      <c r="O42" t="s">
-        <v>19</v>
-      </c>
-      <c r="P42" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q42">
-        <v>1</v>
-      </c>
-      <c r="R42" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">

--- a/shells/Freebayes/analysis_log.xlsx
+++ b/shells/Freebayes/analysis_log.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="110">
   <si>
     <t>chr</t>
   </si>
@@ -738,7 +738,7 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,6 +836,12 @@
         <f t="shared" ref="G3:G18" si="0">E3/B3</f>
         <v>0.86488999964085678</v>
       </c>
+      <c r="H3" s="8">
+        <v>169407131</v>
+      </c>
+      <c r="I3" t="s">
+        <v>106</v>
+      </c>
       <c r="J3">
         <v>4</v>
       </c>

--- a/shells/Freebayes/analysis_log.xlsx
+++ b/shells/Freebayes/analysis_log.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="460" windowWidth="25000" windowHeight="17140" tabRatio="500"/>
+    <workbookView xWindow="3040" yWindow="460" windowWidth="25000" windowHeight="17140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="202">
   <si>
     <t>chr</t>
   </si>
@@ -357,13 +358,289 @@
   </si>
   <si>
     <t>9-16:35:19</t>
+  </si>
+  <si>
+    <t>n0005.savio2</t>
+  </si>
+  <si>
+    <t>n0009.savio2</t>
+  </si>
+  <si>
+    <t>n0222.savio2</t>
+  </si>
+  <si>
+    <t>n0003.savio2</t>
+  </si>
+  <si>
+    <t>n0010.savio2</t>
+  </si>
+  <si>
+    <t>n0011.savio2</t>
+  </si>
+  <si>
+    <t>n0216.savio2</t>
+  </si>
+  <si>
+    <t>n0217.savio2</t>
+  </si>
+  <si>
+    <t>n0219.savio2</t>
+  </si>
+  <si>
+    <t>n0220.savio2</t>
+  </si>
+  <si>
+    <t>n0221.savio2</t>
+  </si>
+  <si>
+    <t>01_2</t>
+  </si>
+  <si>
+    <t>01_3</t>
+  </si>
+  <si>
+    <t>01_4</t>
+  </si>
+  <si>
+    <t>01_5</t>
+  </si>
+  <si>
+    <t>01_6</t>
+  </si>
+  <si>
+    <t>04_14</t>
+  </si>
+  <si>
+    <t>04_15</t>
+  </si>
+  <si>
+    <t>04_16</t>
+  </si>
+  <si>
+    <t>04_17</t>
+  </si>
+  <si>
+    <t>04_18</t>
+  </si>
+  <si>
+    <t>04_19</t>
+  </si>
+  <si>
+    <t>04_2</t>
+  </si>
+  <si>
+    <t>04_20</t>
+  </si>
+  <si>
+    <t>04_21</t>
+  </si>
+  <si>
+    <t>04_22</t>
+  </si>
+  <si>
+    <t>04_3</t>
+  </si>
+  <si>
+    <t>04_4</t>
+  </si>
+  <si>
+    <t>04_5</t>
+  </si>
+  <si>
+    <t>04_6</t>
+  </si>
+  <si>
+    <t>03_20</t>
+  </si>
+  <si>
+    <t>03_21</t>
+  </si>
+  <si>
+    <t>03_3</t>
+  </si>
+  <si>
+    <t>03_4</t>
+  </si>
+  <si>
+    <t>03_5</t>
+  </si>
+  <si>
+    <t>03_6</t>
+  </si>
+  <si>
+    <t>03_7</t>
+  </si>
+  <si>
+    <t>03_8</t>
+  </si>
+  <si>
+    <t>03_9</t>
+  </si>
+  <si>
+    <t>04_1</t>
+  </si>
+  <si>
+    <t>04_10</t>
+  </si>
+  <si>
+    <t>04_11</t>
+  </si>
+  <si>
+    <t>04_12</t>
+  </si>
+  <si>
+    <t>04_13</t>
+  </si>
+  <si>
+    <t>02_8</t>
+  </si>
+  <si>
+    <t>02_9</t>
+  </si>
+  <si>
+    <t>03_1</t>
+  </si>
+  <si>
+    <t>03_10</t>
+  </si>
+  <si>
+    <t>03_11</t>
+  </si>
+  <si>
+    <t>03_12</t>
+  </si>
+  <si>
+    <t>03_13</t>
+  </si>
+  <si>
+    <t>03_14</t>
+  </si>
+  <si>
+    <t>03_15</t>
+  </si>
+  <si>
+    <t>03_16</t>
+  </si>
+  <si>
+    <t>03_17</t>
+  </si>
+  <si>
+    <t>03_18</t>
+  </si>
+  <si>
+    <t>03_19</t>
+  </si>
+  <si>
+    <t>03_2</t>
+  </si>
+  <si>
+    <t>02_15</t>
+  </si>
+  <si>
+    <t>02_16</t>
+  </si>
+  <si>
+    <t>02_17</t>
+  </si>
+  <si>
+    <t>02_18</t>
+  </si>
+  <si>
+    <t>02_19</t>
+  </si>
+  <si>
+    <t>02_2</t>
+  </si>
+  <si>
+    <t>02_20</t>
+  </si>
+  <si>
+    <t>02_21</t>
+  </si>
+  <si>
+    <t>02_22</t>
+  </si>
+  <si>
+    <t>02_3</t>
+  </si>
+  <si>
+    <t>02_4</t>
+  </si>
+  <si>
+    <t>02_5</t>
+  </si>
+  <si>
+    <t>02_6</t>
+  </si>
+  <si>
+    <t>02_7</t>
+  </si>
+  <si>
+    <t>01_7</t>
+  </si>
+  <si>
+    <t>01_8</t>
+  </si>
+  <si>
+    <t>01_9</t>
+  </si>
+  <si>
+    <t>02_1</t>
+  </si>
+  <si>
+    <t>02_10</t>
+  </si>
+  <si>
+    <t>02_11</t>
+  </si>
+  <si>
+    <t>02_12</t>
+  </si>
+  <si>
+    <t>02_13</t>
+  </si>
+  <si>
+    <t>02_14</t>
+  </si>
+  <si>
+    <t>01_1</t>
+  </si>
+  <si>
+    <t>01_10</t>
+  </si>
+  <si>
+    <t>01_11</t>
+  </si>
+  <si>
+    <t>01_12</t>
+  </si>
+  <si>
+    <t>01_13</t>
+  </si>
+  <si>
+    <t>01_14</t>
+  </si>
+  <si>
+    <t>01_15</t>
+  </si>
+  <si>
+    <t>01_16</t>
+  </si>
+  <si>
+    <t>01_17</t>
+  </si>
+  <si>
+    <t>01_18</t>
+  </si>
+  <si>
+    <t>01_19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,6 +684,11 @@
       <color rgb="FFCBBAF4"/>
       <name val="Courier New"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -444,7 +726,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -454,6 +736,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -738,7 +1024,7 @@
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2496,4 +2782,2142 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H84"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="10"/>
+    <col min="4" max="4" width="10.83203125" style="12"/>
+    <col min="5" max="8" width="10.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="9">
+        <v>2976412</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G1" s="10">
+        <v>1</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>2976423</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2976425</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>2976426</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>2976427</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>2976428</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>2976429</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>2976430</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>2976431</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>2976413</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>2976414</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2976415</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>2976416</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>2976417</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>2976418</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>2976419</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>2976420</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>2976421</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>2976422</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2.4048611111111113</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>2976432</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G20" s="10">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>2976433</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G21" s="10">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>2976434</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>2976435</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>2976436</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G24" s="10">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>2976437</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="11">
+        <v>2.3840277777777779</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>2976438</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G26" s="10">
+        <v>1</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>2976439</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G27" s="10">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>2976440</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>2976441</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G29" s="10">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9">
+        <v>2976442</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G30" s="10">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
+        <v>2976443</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="9">
+        <v>2976444</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G32" s="10">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="9">
+        <v>2976445</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G33" s="10">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
+        <v>2976446</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G34" s="10">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="9">
+        <v>2976448</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
+        <v>2976449</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G36" s="10">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="9">
+        <v>2976450</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
+        <v>2976451</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="9">
+        <v>2976452</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2.3631944444444444</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
+        <v>2976453</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="9">
+        <v>2976454</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
+        <v>2976455</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="9">
+        <v>2976456</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G43" s="10">
+        <v>1</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>2976457</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="9">
+        <v>2976458</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G45" s="10">
+        <v>1</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
+        <v>2976459</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G46" s="10">
+        <v>1</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="9">
+        <v>2976461</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G47" s="10">
+        <v>1</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
+        <v>2976462</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G48" s="10">
+        <v>1</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="9">
+        <v>2976463</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
+        <v>2976464</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G50" s="10">
+        <v>1</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="9">
+        <v>2976465</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G51" s="10">
+        <v>1</v>
+      </c>
+      <c r="H51" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
+        <v>2976466</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G52" s="10">
+        <v>1</v>
+      </c>
+      <c r="H52" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="9">
+        <v>2976467</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="11">
+        <v>2.3423611111111113</v>
+      </c>
+      <c r="G53" s="10">
+        <v>1</v>
+      </c>
+      <c r="H53" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
+        <v>2976468</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="9">
+        <v>2976469</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="H55" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
+        <v>2976471</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G56" s="10">
+        <v>1</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="9">
+        <v>2976472</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G57" s="10">
+        <v>1</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
+        <v>2976473</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G58" s="10">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="9">
+        <v>2976474</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G59" s="10">
+        <v>1</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
+        <v>2976475</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G60" s="10">
+        <v>1</v>
+      </c>
+      <c r="H60" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="9">
+        <v>2976476</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G61" s="10">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
+        <v>2976477</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G62" s="10">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="9">
+        <v>2976478</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G63" s="10">
+        <v>1</v>
+      </c>
+      <c r="H63" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
+        <v>2976479</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G64" s="10">
+        <v>1</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="9">
+        <v>2976480</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G65" s="10">
+        <v>1</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <v>2976481</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G66" s="10">
+        <v>1</v>
+      </c>
+      <c r="H66" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <v>2976482</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="11">
+        <v>2.3215277777777779</v>
+      </c>
+      <c r="G67" s="10">
+        <v>1</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <v>2976483</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G68" s="10">
+        <v>1</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69" s="9">
+        <v>2976484</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G69" s="10">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
+        <v>2976485</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G70" s="10">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A71" s="9">
+        <v>2976486</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G71" s="10">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
+        <v>2976487</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G72" s="10">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73" s="9">
+        <v>2976488</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G73" s="10">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
+        <v>2976489</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G74" s="10">
+        <v>1</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="9">
+        <v>2976490</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G75" s="10">
+        <v>1</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
+        <v>2976491</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G76" s="10">
+        <v>1</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="9">
+        <v>2976492</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G77" s="10">
+        <v>1</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
+        <v>2976494</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E78" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G78" s="10">
+        <v>1</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79" s="9">
+        <v>2976495</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G79" s="10">
+        <v>1</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
+        <v>2976496</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G80" s="10">
+        <v>1</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81" s="9">
+        <v>2976497</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="11">
+        <v>2.3006944444444444</v>
+      </c>
+      <c r="G81" s="10">
+        <v>1</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82" s="9"/>
+    </row>
+    <row r="83" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83" s="9"/>
+    </row>
+    <row r="84" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84" s="9"/>
+    </row>
+  </sheetData>
+  <sortState ref="A1:H82">
+    <sortCondition ref="C1:C82"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/shells/Freebayes/analysis_log.xlsx
+++ b/shells/Freebayes/analysis_log.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melisakman/GoogleDrive/is/Sunflower/git/shells/Freebayes/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8415499-C4EF-3C46-AF44-9BBFDF7DCE78}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="460" windowWidth="25000" windowHeight="17140" tabRatio="500"/>
+    <workbookView xWindow="3040" yWindow="460" windowWidth="25000" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -639,7 +640,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -651,6 +652,7 @@
     <font>
       <sz val="13"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -678,16 +680,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FFCBBAF4"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -753,6 +758,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1020,11 +1028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2785,7 +2793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
